--- a/medicine/Psychotrope/Goudale/Goudale.xlsx
+++ b/medicine/Psychotrope/Goudale/Goudale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La goudale désigne en Gascogne un mélange de potage et de vin[1] et une coutume traditionnelle dans le Sud-Ouest de la France après avoir mangé la soupe : ajouter du vin rouge au (petit) reste de soupe puis boire directement dans l'assiette en la portant à sa bouche.
+La goudale désigne en Gascogne un mélange de potage et de vin et une coutume traditionnelle dans le Sud-Ouest de la France après avoir mangé la soupe : ajouter du vin rouge au (petit) reste de soupe puis boire directement dans l'assiette en la portant à sa bouche.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Utilisé notamment en Béarn et Bigorre,  le terme gascon goudale (graphie des félibres) ou godala (graphie occitane) pourrait dériver (par métathèse) de goulade, « goulée »[2].
-Cet usage est appelé en gascon ha la goudale[3], littéralement « faire la goudale ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Utilisé notamment en Béarn et Bigorre,  le terme gascon goudale (graphie des félibres) ou godala (graphie occitane) pourrait dériver (par métathèse) de goulade, « goulée ».
+Cet usage est appelé en gascon ha la goudale, littéralement « faire la goudale ».
 Dans le Midi de la France, le terme gascon goudale a pour correspondants le mot (apparenté ?) godaille dans le Poitou et les Charentes, et des variants de chabrot ailleurs : chabrot en Limousin, chabròu en Périgord, chabròl en occitan, cabroù en Provence.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Tradition rurale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La goudale à la fin d'une soupe ou potage traditionnels (telle la garbure en Béarn et Bigorre) était autrefois courante à la campagne. Pour décrire ce qu'est la goudale Vastin Lespy, bourgeois (et érudit) de Pau, écrivait vers la fin du XIXe siècle : « nos paysans, lorsqu'ils ont mangé la garbure ou toute autre soupe, versent du vin dans l'écuelle, dans l'assiette où ils ont laissé quelque peu de potage ; ils boivent ce mélange »[3] ; la pratique était donc à la fois courante alors à la campagne et sans doute déjà plus rare en ville.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La goudale à la fin d'une soupe ou potage traditionnels (telle la garbure en Béarn et Bigorre) était autrefois courante à la campagne. Pour décrire ce qu'est la goudale Vastin Lespy, bourgeois (et érudit) de Pau, écrivait vers la fin du XIXe siècle : « nos paysans, lorsqu'ils ont mangé la garbure ou toute autre soupe, versent du vin dans l'écuelle, dans l'assiette où ils ont laissé quelque peu de potage ; ils boivent ce mélange » ; la pratique était donc à la fois courante alors à la campagne et sans doute déjà plus rare en ville.
 Les territoires ruraux couvrent encore une grande partie de la Gascogne. Mais la coutume de la goudale a diminué dans la deuxième moitié du XXe siècle, restant présente plutôt chez des personnes âgées. 
 </t>
         </is>
